--- a/src/main/resources/static/excel/excel_sample.xlsx
+++ b/src/main/resources/static/excel/excel_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahojin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ED3F17-AC75-684D-8BA1-EF47EDD8B031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3FBA69-EE35-4D41-A68F-C221030DCDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{8725D1FE-53B9-44CA-86DE-8B02F4EF05A4}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{8725D1FE-53B9-44CA-86DE-8B02F4EF05A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -883,10 +883,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="hh:mm"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1007,15 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1158,12 +1167,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,26 +1230,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,12 +1254,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,9 +1261,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1308,9 +1293,58 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4071,142 +4105,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F5B4D4-6F45-46C7-B739-18EA4F3CF505}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="39" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="47.5" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="47.5" style="39" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="46" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="7" max="7" width="14.6640625" style="35" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="14.6640625" style="27" customWidth="1" outlineLevel="2"/>
     <col min="8" max="8" width="9.1640625" customWidth="1" outlineLevel="2"/>
     <col min="9" max="10" width="9.5" customWidth="1" outlineLevel="2"/>
-    <col min="11" max="12" width="10" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="13" max="13" width="33.6640625" customWidth="1"/>
-    <col min="14" max="14" width="45" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="14.83203125" style="36" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="21.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="16.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="14.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="36.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="10" style="39" bestFit="1" customWidth="1" outlineLevel="2"/>
+    <col min="13" max="13" width="33.6640625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="45" style="39" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="39" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="14.83203125" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="21.1640625" style="39" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="16.83203125" style="39" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="13.6640625" style="39" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="14.6640625" style="39" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="13.6640625" style="39" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="36.6640625" style="39" customWidth="1"/>
     <col min="25" max="25" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="E1"/>
       <c r="G1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
       <c r="P1"/>
-    </row>
-    <row r="2" spans="1:27" s="43" customFormat="1">
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+    </row>
+    <row r="2" spans="1:27" s="34" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="W2" s="14"/>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="41" t="s">
+      <c r="Z2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="42"/>
+      <c r="AA2" s="33"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="4"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="45"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -4214,27 +4258,26 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="4"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="30"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="45"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -4242,27 +4285,27 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="4"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="45"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
@@ -4270,27 +4313,27 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="4"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="45"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -4298,27 +4341,27 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="4"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="45"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
@@ -4326,27 +4369,27 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="4"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="45"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
@@ -4354,27 +4397,27 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="4"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="45"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
@@ -4382,27 +4425,27 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="4"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="45"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
@@ -4410,27 +4453,27 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="4"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="45"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
@@ -4438,27 +4481,27 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="4"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="45"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
@@ -4466,27 +4509,27 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="41"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="4"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="45"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -4494,27 +4537,27 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="4"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="45"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -4522,27 +4565,27 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="4"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="45"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -4550,7 +4593,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="판매, 트래픽 중 1개를 입력하시오." error="판매, 트래픽 중 1개를 입력하시오." sqref="A3:A1048576" xr:uid="{FA09952F-E756-4028-B7A2-C1FC6ECDD77E}">
       <formula1>"판매, 트래픽"</formula1>
     </dataValidation>
@@ -4568,6 +4611,22 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576" xr:uid="{3DC24912-0E0C-4412-8DF8-8EFC7D279065}">
       <formula1>"단일 이미지·동영상, 슬라이드"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{E4549F9B-F137-B44D-B20C-A26028B44C8E}">
+      <formula1>"대한민국,일본"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{1D4161B5-52CC-3E4E-A029-90764F728003}">
+      <formula1>"한국어,영어"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{FEB6EA37-FD6B-F345-B84A-6813C179AD63}">
+      <formula1>"남자,여자,모든 성별"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{BA30F8DD-BA7E-634F-8BFA-81879E7F02CE}">
+      <formula1>18</formula1>
+      <formula2>70</formula2>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q1048576 Q3" xr:uid="{A3F1D0F5-FCE5-AA4D-A8C3-3C4F2F1C91B9}">
+      <formula1>HYPERLINK(INDIRECT(CELL("address")))=INDIRECT(CELL("address"))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4681,89 +4740,89 @@
       </c>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="46"/>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="46"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="46"/>
-      <c r="V61" s="46"/>
-      <c r="W61" s="46"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
     </row>
     <row r="62" spans="1:27">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
-      <c r="Q62" s="46"/>
-      <c r="R62" s="46"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="46"/>
-      <c r="V62" s="46"/>
-      <c r="W62" s="46"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
-      <c r="R63" s="46"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="46"/>
-      <c r="V63" s="46"/>
-      <c r="W63" s="46"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
@@ -4904,63 +4963,63 @@
       </c>
     </row>
     <row r="132" spans="1:17" s="9" customFormat="1">
-      <c r="A132" s="46" t="s">
+      <c r="A132" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B132" s="46"/>
-      <c r="C132" s="46"/>
-      <c r="D132" s="46"/>
-      <c r="E132" s="46"/>
-      <c r="F132" s="46"/>
-      <c r="G132" s="46"/>
-      <c r="H132" s="46"/>
-      <c r="I132" s="46"/>
-      <c r="J132" s="46"/>
-      <c r="K132" s="46"/>
-      <c r="L132" s="46"/>
-      <c r="M132" s="46"/>
-      <c r="N132" s="46"/>
-      <c r="O132" s="46"/>
-      <c r="P132" s="46"/>
-      <c r="Q132" s="46"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="37"/>
+      <c r="E132" s="37"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="37"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="37"/>
+      <c r="K132" s="37"/>
+      <c r="L132" s="37"/>
+      <c r="M132" s="37"/>
+      <c r="N132" s="37"/>
+      <c r="O132" s="37"/>
+      <c r="P132" s="37"/>
+      <c r="Q132" s="37"/>
     </row>
     <row r="133" spans="1:17" s="9" customFormat="1">
-      <c r="A133" s="46"/>
-      <c r="B133" s="46"/>
-      <c r="C133" s="46"/>
-      <c r="D133" s="46"/>
-      <c r="E133" s="46"/>
-      <c r="F133" s="46"/>
-      <c r="G133" s="46"/>
-      <c r="H133" s="46"/>
-      <c r="I133" s="46"/>
-      <c r="J133" s="46"/>
-      <c r="K133" s="46"/>
-      <c r="L133" s="46"/>
-      <c r="M133" s="46"/>
-      <c r="N133" s="46"/>
-      <c r="O133" s="46"/>
-      <c r="P133" s="46"/>
-      <c r="Q133" s="46"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="37"/>
+      <c r="K133" s="37"/>
+      <c r="L133" s="37"/>
+      <c r="M133" s="37"/>
+      <c r="N133" s="37"/>
+      <c r="O133" s="37"/>
+      <c r="P133" s="37"/>
+      <c r="Q133" s="37"/>
     </row>
     <row r="134" spans="1:17" s="9" customFormat="1">
-      <c r="A134" s="46"/>
-      <c r="B134" s="46"/>
-      <c r="C134" s="46"/>
-      <c r="D134" s="46"/>
-      <c r="E134" s="46"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="46"/>
-      <c r="I134" s="46"/>
-      <c r="J134" s="46"/>
-      <c r="K134" s="46"/>
-      <c r="L134" s="46"/>
-      <c r="M134" s="46"/>
-      <c r="N134" s="46"/>
-      <c r="O134" s="46"/>
-      <c r="P134" s="46"/>
-      <c r="Q134" s="46"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="37"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="37"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="37"/>
+      <c r="K134" s="37"/>
+      <c r="L134" s="37"/>
+      <c r="M134" s="37"/>
+      <c r="N134" s="37"/>
+      <c r="O134" s="37"/>
+      <c r="P134" s="37"/>
+      <c r="Q134" s="37"/>
     </row>
     <row r="138" spans="1:17">
       <c r="L138" s="6" t="s">
@@ -5102,7 +5161,7 @@
       <c r="L198" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="M198" s="26"/>
+      <c r="M198" s="20"/>
       <c r="N198" s="6"/>
     </row>
     <row r="199" spans="12:14">
@@ -5164,22 +5223,22 @@
       <c r="AB221" s="15"/>
     </row>
     <row r="222" spans="2:28">
-      <c r="B222" s="47" t="s">
+      <c r="B222" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C222" s="47"/>
-      <c r="D222" s="47"/>
-      <c r="E222" s="47"/>
-      <c r="F222" s="47"/>
-      <c r="G222" s="47"/>
+      <c r="C222" s="38"/>
+      <c r="D222" s="38"/>
+      <c r="E222" s="38"/>
+      <c r="F222" s="38"/>
+      <c r="G222" s="38"/>
     </row>
     <row r="223" spans="2:28">
-      <c r="B223" s="47"/>
-      <c r="C223" s="47"/>
-      <c r="D223" s="47"/>
-      <c r="E223" s="47"/>
-      <c r="F223" s="47"/>
-      <c r="G223" s="47"/>
+      <c r="B223" s="38"/>
+      <c r="C223" s="38"/>
+      <c r="D223" s="38"/>
+      <c r="E223" s="38"/>
+      <c r="F223" s="38"/>
+      <c r="G223" s="38"/>
       <c r="L223" t="s">
         <v>97</v>
       </c>
@@ -5190,22 +5249,22 @@
       </c>
     </row>
     <row r="225" spans="12:22">
-      <c r="L225" s="47" t="s">
+      <c r="L225" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="M225" s="47"/>
-      <c r="N225" s="47"/>
-      <c r="O225" s="47"/>
-      <c r="P225" s="47"/>
-      <c r="Q225" s="47"/>
+      <c r="M225" s="38"/>
+      <c r="N225" s="38"/>
+      <c r="O225" s="38"/>
+      <c r="P225" s="38"/>
+      <c r="Q225" s="38"/>
     </row>
     <row r="226" spans="12:22">
-      <c r="L226" s="47"/>
-      <c r="M226" s="47"/>
-      <c r="N226" s="47"/>
-      <c r="O226" s="47"/>
-      <c r="P226" s="47"/>
-      <c r="Q226" s="47"/>
+      <c r="L226" s="38"/>
+      <c r="M226" s="38"/>
+      <c r="N226" s="38"/>
+      <c r="O226" s="38"/>
+      <c r="P226" s="38"/>
+      <c r="Q226" s="38"/>
     </row>
     <row r="229" spans="12:22" ht="27">
       <c r="U229" s="17" t="s">
@@ -5320,22 +5379,22 @@
       </c>
     </row>
     <row r="284" spans="12:22">
-      <c r="L284" s="47" t="s">
+      <c r="L284" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="M284" s="47"/>
-      <c r="N284" s="47"/>
-      <c r="O284" s="47"/>
-      <c r="P284" s="47"/>
-      <c r="Q284" s="47"/>
+      <c r="M284" s="38"/>
+      <c r="N284" s="38"/>
+      <c r="O284" s="38"/>
+      <c r="P284" s="38"/>
+      <c r="Q284" s="38"/>
     </row>
     <row r="285" spans="12:22">
-      <c r="L285" s="47"/>
-      <c r="M285" s="47"/>
-      <c r="N285" s="47"/>
-      <c r="O285" s="47"/>
-      <c r="P285" s="47"/>
-      <c r="Q285" s="47"/>
+      <c r="L285" s="38"/>
+      <c r="M285" s="38"/>
+      <c r="N285" s="38"/>
+      <c r="O285" s="38"/>
+      <c r="P285" s="38"/>
+      <c r="Q285" s="38"/>
     </row>
     <row r="287" spans="12:22" ht="27">
       <c r="U287" s="17" t="s">
@@ -5419,7 +5478,7 @@
       <c r="L322" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="M322" s="26"/>
+      <c r="M322" s="20"/>
       <c r="N322" s="6"/>
     </row>
     <row r="323" spans="1:17">
@@ -5428,63 +5487,63 @@
       </c>
     </row>
     <row r="336" spans="1:17" s="9" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A336" s="46" t="s">
+      <c r="A336" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B336" s="46"/>
-      <c r="C336" s="46"/>
-      <c r="D336" s="46"/>
-      <c r="E336" s="46"/>
-      <c r="F336" s="46"/>
-      <c r="G336" s="46"/>
-      <c r="H336" s="46"/>
-      <c r="I336" s="46"/>
-      <c r="J336" s="46"/>
-      <c r="K336" s="46"/>
-      <c r="L336" s="46"/>
-      <c r="M336" s="46"/>
-      <c r="N336" s="46"/>
-      <c r="O336" s="46"/>
-      <c r="P336" s="46"/>
-      <c r="Q336" s="46"/>
+      <c r="B336" s="37"/>
+      <c r="C336" s="37"/>
+      <c r="D336" s="37"/>
+      <c r="E336" s="37"/>
+      <c r="F336" s="37"/>
+      <c r="G336" s="37"/>
+      <c r="H336" s="37"/>
+      <c r="I336" s="37"/>
+      <c r="J336" s="37"/>
+      <c r="K336" s="37"/>
+      <c r="L336" s="37"/>
+      <c r="M336" s="37"/>
+      <c r="N336" s="37"/>
+      <c r="O336" s="37"/>
+      <c r="P336" s="37"/>
+      <c r="Q336" s="37"/>
     </row>
     <row r="337" spans="1:17" s="9" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A337" s="46"/>
-      <c r="B337" s="46"/>
-      <c r="C337" s="46"/>
-      <c r="D337" s="46"/>
-      <c r="E337" s="46"/>
-      <c r="F337" s="46"/>
-      <c r="G337" s="46"/>
-      <c r="H337" s="46"/>
-      <c r="I337" s="46"/>
-      <c r="J337" s="46"/>
-      <c r="K337" s="46"/>
-      <c r="L337" s="46"/>
-      <c r="M337" s="46"/>
-      <c r="N337" s="46"/>
-      <c r="O337" s="46"/>
-      <c r="P337" s="46"/>
-      <c r="Q337" s="46"/>
+      <c r="A337" s="37"/>
+      <c r="B337" s="37"/>
+      <c r="C337" s="37"/>
+      <c r="D337" s="37"/>
+      <c r="E337" s="37"/>
+      <c r="F337" s="37"/>
+      <c r="G337" s="37"/>
+      <c r="H337" s="37"/>
+      <c r="I337" s="37"/>
+      <c r="J337" s="37"/>
+      <c r="K337" s="37"/>
+      <c r="L337" s="37"/>
+      <c r="M337" s="37"/>
+      <c r="N337" s="37"/>
+      <c r="O337" s="37"/>
+      <c r="P337" s="37"/>
+      <c r="Q337" s="37"/>
     </row>
     <row r="338" spans="1:17" s="9" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A338" s="46"/>
-      <c r="B338" s="46"/>
-      <c r="C338" s="46"/>
-      <c r="D338" s="46"/>
-      <c r="E338" s="46"/>
-      <c r="F338" s="46"/>
-      <c r="G338" s="46"/>
-      <c r="H338" s="46"/>
-      <c r="I338" s="46"/>
-      <c r="J338" s="46"/>
-      <c r="K338" s="46"/>
-      <c r="L338" s="46"/>
-      <c r="M338" s="46"/>
-      <c r="N338" s="46"/>
-      <c r="O338" s="46"/>
-      <c r="P338" s="46"/>
-      <c r="Q338" s="46"/>
+      <c r="A338" s="37"/>
+      <c r="B338" s="37"/>
+      <c r="C338" s="37"/>
+      <c r="D338" s="37"/>
+      <c r="E338" s="37"/>
+      <c r="F338" s="37"/>
+      <c r="G338" s="37"/>
+      <c r="H338" s="37"/>
+      <c r="I338" s="37"/>
+      <c r="J338" s="37"/>
+      <c r="K338" s="37"/>
+      <c r="L338" s="37"/>
+      <c r="M338" s="37"/>
+      <c r="N338" s="37"/>
+      <c r="O338" s="37"/>
+      <c r="P338" s="37"/>
+      <c r="Q338" s="37"/>
     </row>
     <row r="340" spans="1:17" ht="27">
       <c r="I340" s="17" t="s">
@@ -5509,10 +5568,10 @@
       </c>
     </row>
     <row r="357" spans="9:10" ht="27">
-      <c r="I357" s="27" t="s">
+      <c r="I357" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="J357" s="28"/>
+      <c r="J357" s="22"/>
     </row>
     <row r="360" spans="9:10">
       <c r="I360" s="10" t="s">
@@ -5547,7 +5606,7 @@
       </c>
     </row>
     <row r="370" spans="9:10" ht="27">
-      <c r="I370" s="27" t="s">
+      <c r="I370" s="21" t="s">
         <v>117</v>
       </c>
       <c r="J370" s="6"/>
@@ -5610,7 +5669,7 @@
       </c>
     </row>
     <row r="406" spans="9:10" ht="27">
-      <c r="I406" s="27" t="s">
+      <c r="I406" s="21" t="s">
         <v>139</v>
       </c>
       <c r="J406" s="6"/>
@@ -5658,12 +5717,12 @@
       </c>
     </row>
     <row r="435" spans="19:26" ht="27">
-      <c r="S435" s="27" t="s">
+      <c r="S435" s="21" t="s">
         <v>147</v>
       </c>
       <c r="T435" s="6"/>
       <c r="U435" s="6"/>
-      <c r="V435" s="29" t="s">
+      <c r="V435" s="23" t="s">
         <v>148</v>
       </c>
       <c r="W435" s="15"/>
@@ -5819,14 +5878,14 @@
       </c>
     </row>
     <row r="561" spans="19:20">
-      <c r="S561" s="44" t="s">
+      <c r="S561" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="T561" s="45"/>
+      <c r="T561" s="36"/>
     </row>
     <row r="562" spans="19:20">
-      <c r="S562" s="45"/>
-      <c r="T562" s="45"/>
+      <c r="S562" s="36"/>
+      <c r="T562" s="36"/>
     </row>
     <row r="565" spans="19:20">
       <c r="S565" s="10" t="s">
@@ -5884,12 +5943,12 @@
       </c>
     </row>
     <row r="631" spans="15:22" ht="27">
-      <c r="O631" s="27" t="s">
+      <c r="O631" s="21" t="s">
         <v>147</v>
       </c>
       <c r="P631" s="6"/>
       <c r="Q631" s="6"/>
-      <c r="R631" s="29" t="s">
+      <c r="R631" s="23" t="s">
         <v>178</v>
       </c>
       <c r="S631" s="15"/>
@@ -6033,14 +6092,14 @@
       </c>
     </row>
     <row r="758" spans="16:17">
-      <c r="P758" s="44" t="s">
+      <c r="P758" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="Q758" s="45"/>
+      <c r="Q758" s="36"/>
     </row>
     <row r="759" spans="16:17">
-      <c r="P759" s="45"/>
-      <c r="Q759" s="45"/>
+      <c r="P759" s="36"/>
+      <c r="Q759" s="36"/>
     </row>
     <row r="765" spans="16:17">
       <c r="P765" s="10" t="s">
@@ -6087,20 +6146,20 @@
       </c>
     </row>
     <row r="814" spans="11:15" ht="17.5" customHeight="1">
-      <c r="K814" s="44" t="s">
+      <c r="K814" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="L814" s="44"/>
-      <c r="M814" s="44"/>
-      <c r="N814" s="44"/>
-      <c r="O814" s="44"/>
+      <c r="L814" s="35"/>
+      <c r="M814" s="35"/>
+      <c r="N814" s="35"/>
+      <c r="O814" s="35"/>
     </row>
     <row r="815" spans="11:15" ht="17.5" customHeight="1">
-      <c r="K815" s="44"/>
-      <c r="L815" s="44"/>
-      <c r="M815" s="44"/>
-      <c r="N815" s="44"/>
-      <c r="O815" s="44"/>
+      <c r="K815" s="35"/>
+      <c r="L815" s="35"/>
+      <c r="M815" s="35"/>
+      <c r="N815" s="35"/>
+      <c r="O815" s="35"/>
     </row>
     <row r="827" spans="11:11">
       <c r="K827" s="10" t="s">
@@ -6404,20 +6463,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ca2aa3fe-7cd9-4bb8-98f3-aa48b07f5614" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ca2aa3fe-7cd9-4bb8-98f3-aa48b07f5614" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6439,6 +6498,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE20B64-B1DB-4D7F-B13D-E3CE05B3F74C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A31DFC7-F306-40B4-A27A-965C2F0C86DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6446,12 +6513,4 @@
     <ds:schemaRef ds:uri="ca2aa3fe-7cd9-4bb8-98f3-aa48b07f5614"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE20B64-B1DB-4D7F-B13D-E3CE05B3F74C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/static/excel/excel_sample.xlsx
+++ b/src/main/resources/static/excel/excel_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nahojin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3FBA69-EE35-4D41-A68F-C221030DCDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A63DFA-6110-2545-AEC5-983823011F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{8725D1FE-53B9-44CA-86DE-8B02F4EF05A4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{8725D1FE-53B9-44CA-86DE-8B02F4EF05A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="211">
   <si>
     <t>캠페인 목표</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -875,6 +875,10 @@
   </si>
   <si>
     <t>최대 연령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이 범위(설정시 어드밴티지 + 타겟 활성화)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -883,8 +887,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="hh:mm"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="hh:mm"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -1254,10 +1258,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1281,18 +1285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1305,22 +1297,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,6 +1329,21 @@
     </xf>
     <xf numFmtId="49" fontId="15" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4103,41 +4107,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F5B4D4-6F45-46C7-B739-18EA4F3CF505}">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="35" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="47.5" style="39" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="7" max="7" width="14.6640625" style="27" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="10" width="9.5" customWidth="1" outlineLevel="2"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="12" max="12" width="10" style="39" bestFit="1" customWidth="1" outlineLevel="2"/>
-    <col min="13" max="13" width="33.6640625" style="39" customWidth="1"/>
-    <col min="14" max="14" width="45" style="39" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="14.83203125" style="28" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="21.1640625" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="16.83203125" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="13.6640625" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="14.6640625" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="21" width="13.6640625" style="39" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="36.6640625" style="39" customWidth="1"/>
-    <col min="25" max="25" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="41" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" bestFit="1" customWidth="1" outlineLevel="2"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="8" width="14.6640625" style="27" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1" outlineLevel="2"/>
+    <col min="10" max="11" width="9.5" customWidth="1" outlineLevel="2"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1" outlineLevel="2"/>
+    <col min="13" max="13" width="10" style="35" bestFit="1" customWidth="1" outlineLevel="2"/>
+    <col min="14" max="14" width="33.6640625" style="35" customWidth="1"/>
+    <col min="15" max="15" width="45" style="35" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="35" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="14.83203125" style="28" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="21.1640625" style="35" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="16.83203125" style="35" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="13.6640625" style="35" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="21" width="14.6640625" style="35" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="13.6640625" style="35" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="36.6640625" style="35" customWidth="1"/>
+    <col min="26" max="26" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="G1"/>
-      <c r="L1"/>
+    <row r="1" spans="1:28">
+      <c r="H1"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -4148,486 +4152,508 @@
       <c r="T1"/>
       <c r="U1"/>
       <c r="V1"/>
-    </row>
-    <row r="2" spans="1:27" s="34" customFormat="1">
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:28" s="34" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="H2" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="M2" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="P2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="Q2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="R2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="S2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="T2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="U2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="V2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="14"/>
+      <c r="Y2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="32" t="s">
+      <c r="Z2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="32" t="s">
+      <c r="AA2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="33"/>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" s="33"/>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="14"/>
-      <c r="B3" s="41"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="48"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="4"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="40"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" s="14"/>
-      <c r="B4" s="41"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="30"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="4"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="30"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="40"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4" s="4"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="14"/>
-      <c r="B5" s="41"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="48"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="4"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="40"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="14"/>
-      <c r="B6" s="41"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="48"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="4"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="40"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6" s="4"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="14"/>
-      <c r="B7" s="41"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="48"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="4"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="40"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="14"/>
-      <c r="B8" s="41"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="48"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="4"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="40"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8" s="4"/>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="14"/>
-      <c r="B9" s="41"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="4"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="40"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="14"/>
-      <c r="B10" s="41"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="4"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="40"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="14"/>
-      <c r="B11" s="41"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="4"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="40"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="14"/>
-      <c r="B12" s="41"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="4"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="40"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12" s="4"/>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="14"/>
-      <c r="B13" s="41"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="48"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="4"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="40"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="14"/>
-      <c r="B14" s="41"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="48"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="4"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="40"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="14"/>
-      <c r="B15" s="41"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="48"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="4"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="40"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="11">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="판매, 트래픽 중 1개를 입력하시오." error="판매, 트래픽 중 1개를 입력하시오." sqref="A3:A1048576" xr:uid="{FA09952F-E756-4028-B7A2-C1FC6ECDD77E}">
       <formula1>"판매, 트래픽"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ABO, ASC, CBO 중 1개를 입력하시오." error="ABO, ASC, CBO 중 1개를 입력하시오." sqref="C3:C1048576" xr:uid="{6906DF16-FB78-46C8-8A18-7835831EEF3A}">
       <formula1>"ABO, ASC, CBO"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="숫자만 입력 가능합니다." error="숫자만 입력 가능합니다." sqref="E3:E1048576" xr:uid="{B3FDFC7F-C9BB-4165-8B10-C58905EE69FE}">
-      <formula1>0</formula1>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="숫자만 입력 가능합니다." error="숫자만 입력 가능합니다. 예산에는 최소 10000 이상 입력해야합니다." sqref="E3:E1048576" xr:uid="{B3FDFC7F-C9BB-4165-8B10-C58905EE69FE}">
+      <formula1>10000</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{3EEEC025-7120-4827-A83C-29AE0915C7E7}">
-      <formula1>AND(ISNUMBER(F3),LEN(F3)=6,VALUE(MID(F3,3,2))&gt;=1,VALUE(MID(F3,3,2))&lt;=12,VALUE(MID(F3,5,2))&gt;=1,VALUE(MID(F3,5,2))&lt;=31)</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{3EEEC025-7120-4827-A83C-29AE0915C7E7}">
+      <formula1>AND(ISNUMBER(G3),LEN(G3)=6,VALUE(MID(G3,3,2))&gt;=1,VALUE(MID(G3,3,2))&lt;=12,VALUE(MID(G3,5,2))&gt;=1,VALUE(MID(G3,5,2))&lt;=31)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{A21BCD40-92F5-467E-8034-64C2C8A94F7C}">
-      <formula1>AND(ISNUMBER(G3),G3=TIME(HOUR(G3),MINUTE(G3),0))</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{A21BCD40-92F5-467E-8034-64C2C8A94F7C}">
+      <formula1>AND(ISNUMBER(H3),H3=TIME(HOUR(H3),MINUTE(H3),0))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1048576" xr:uid="{3DC24912-0E0C-4412-8DF8-8EFC7D279065}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{3DC24912-0E0C-4412-8DF8-8EFC7D279065}">
       <formula1>"단일 이미지·동영상, 슬라이드"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{E4549F9B-F137-B44D-B20C-A26028B44C8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{E4549F9B-F137-B44D-B20C-A26028B44C8E}">
       <formula1>"대한민국,일본"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576" xr:uid="{1D4161B5-52CC-3E4E-A029-90764F728003}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{1D4161B5-52CC-3E4E-A029-90764F728003}">
       <formula1>"한국어,영어"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576" xr:uid="{FEB6EA37-FD6B-F345-B84A-6813C179AD63}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{FEB6EA37-FD6B-F345-B84A-6813C179AD63}">
       <formula1>"남자,여자,모든 성별"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{BA30F8DD-BA7E-634F-8BFA-81879E7F02CE}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="입력 방법" prompt="어드밴티지+ 타겟이 활성화되면 광고주는 최소 연령 값으로 18~25 사이의 값만 전달할 수 있습니다." sqref="L3:L1048576" xr:uid="{BA30F8DD-BA7E-634F-8BFA-81879E7F02CE}">
       <formula1>18</formula1>
       <formula2>70</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q1048576 Q3" xr:uid="{A3F1D0F5-FCE5-AA4D-A8C3-3C4F2F1C91B9}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R1048576 R3" xr:uid="{A3F1D0F5-FCE5-AA4D-A8C3-3C4F2F1C91B9}">
       <formula1>HYPERLINK(INDIRECT(CELL("address")))=INDIRECT(CELL("address"))</formula1>
     </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="입력 방법" prompt="25~35 와 같이, 범위 수치를 입력합니다. 이 옵션을 입력하면 어드밴티지 플러스 타겟이 활성화 됩니다." sqref="F3:F1048576" xr:uid="{AD85301B-C980-EC44-8D2B-80EE27D533F5}">
+      <formula1>5</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="입력 방법" prompt="어드밴티지+ 타겟이 활성화되면 광고주는 최대 연령 값을 설정할 수 없습니다. 이는 65로만 설정됩니다." sqref="M3:M1048576" xr:uid="{B305ADD3-37C0-8D43-B5D6-5F9382DB0526}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4637,8 +4663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E9BDD6-E266-4F61-98A6-071B8B924DD7}">
   <dimension ref="A4:AB898"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I341" sqref="I341"/>
+    <sheetView topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U256" sqref="U256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -4740,89 +4766,89 @@
       </c>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="37"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="37"/>
-      <c r="U61" s="37"/>
-      <c r="V61" s="37"/>
-      <c r="W61" s="37"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="53"/>
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
     </row>
     <row r="62" spans="1:27">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
-      <c r="U62" s="37"/>
-      <c r="V62" s="37"/>
-      <c r="W62" s="37"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="53"/>
+      <c r="T62" s="53"/>
+      <c r="U62" s="53"/>
+      <c r="V62" s="53"/>
+      <c r="W62" s="53"/>
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="37"/>
-      <c r="U63" s="37"/>
-      <c r="V63" s="37"/>
-      <c r="W63" s="37"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
@@ -4963,63 +4989,63 @@
       </c>
     </row>
     <row r="132" spans="1:17" s="9" customFormat="1">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B132" s="37"/>
-      <c r="C132" s="37"/>
-      <c r="D132" s="37"/>
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="37"/>
-      <c r="K132" s="37"/>
-      <c r="L132" s="37"/>
-      <c r="M132" s="37"/>
-      <c r="N132" s="37"/>
-      <c r="O132" s="37"/>
-      <c r="P132" s="37"/>
-      <c r="Q132" s="37"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="53"/>
+      <c r="I132" s="53"/>
+      <c r="J132" s="53"/>
+      <c r="K132" s="53"/>
+      <c r="L132" s="53"/>
+      <c r="M132" s="53"/>
+      <c r="N132" s="53"/>
+      <c r="O132" s="53"/>
+      <c r="P132" s="53"/>
+      <c r="Q132" s="53"/>
     </row>
     <row r="133" spans="1:17" s="9" customFormat="1">
-      <c r="A133" s="37"/>
-      <c r="B133" s="37"/>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="37"/>
-      <c r="K133" s="37"/>
-      <c r="L133" s="37"/>
-      <c r="M133" s="37"/>
-      <c r="N133" s="37"/>
-      <c r="O133" s="37"/>
-      <c r="P133" s="37"/>
-      <c r="Q133" s="37"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="53"/>
+      <c r="F133" s="53"/>
+      <c r="G133" s="53"/>
+      <c r="H133" s="53"/>
+      <c r="I133" s="53"/>
+      <c r="J133" s="53"/>
+      <c r="K133" s="53"/>
+      <c r="L133" s="53"/>
+      <c r="M133" s="53"/>
+      <c r="N133" s="53"/>
+      <c r="O133" s="53"/>
+      <c r="P133" s="53"/>
+      <c r="Q133" s="53"/>
     </row>
     <row r="134" spans="1:17" s="9" customFormat="1">
-      <c r="A134" s="37"/>
-      <c r="B134" s="37"/>
-      <c r="C134" s="37"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="37"/>
-      <c r="K134" s="37"/>
-      <c r="L134" s="37"/>
-      <c r="M134" s="37"/>
-      <c r="N134" s="37"/>
-      <c r="O134" s="37"/>
-      <c r="P134" s="37"/>
-      <c r="Q134" s="37"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="53"/>
+      <c r="F134" s="53"/>
+      <c r="G134" s="53"/>
+      <c r="H134" s="53"/>
+      <c r="I134" s="53"/>
+      <c r="J134" s="53"/>
+      <c r="K134" s="53"/>
+      <c r="L134" s="53"/>
+      <c r="M134" s="53"/>
+      <c r="N134" s="53"/>
+      <c r="O134" s="53"/>
+      <c r="P134" s="53"/>
+      <c r="Q134" s="53"/>
     </row>
     <row r="138" spans="1:17">
       <c r="L138" s="6" t="s">
@@ -5223,22 +5249,22 @@
       <c r="AB221" s="15"/>
     </row>
     <row r="222" spans="2:28">
-      <c r="B222" s="38" t="s">
+      <c r="B222" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C222" s="38"/>
-      <c r="D222" s="38"/>
-      <c r="E222" s="38"/>
-      <c r="F222" s="38"/>
-      <c r="G222" s="38"/>
+      <c r="C222" s="54"/>
+      <c r="D222" s="54"/>
+      <c r="E222" s="54"/>
+      <c r="F222" s="54"/>
+      <c r="G222" s="54"/>
     </row>
     <row r="223" spans="2:28">
-      <c r="B223" s="38"/>
-      <c r="C223" s="38"/>
-      <c r="D223" s="38"/>
-      <c r="E223" s="38"/>
-      <c r="F223" s="38"/>
-      <c r="G223" s="38"/>
+      <c r="B223" s="54"/>
+      <c r="C223" s="54"/>
+      <c r="D223" s="54"/>
+      <c r="E223" s="54"/>
+      <c r="F223" s="54"/>
+      <c r="G223" s="54"/>
       <c r="L223" t="s">
         <v>97</v>
       </c>
@@ -5249,22 +5275,22 @@
       </c>
     </row>
     <row r="225" spans="12:22">
-      <c r="L225" s="38" t="s">
+      <c r="L225" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="M225" s="38"/>
-      <c r="N225" s="38"/>
-      <c r="O225" s="38"/>
-      <c r="P225" s="38"/>
-      <c r="Q225" s="38"/>
+      <c r="M225" s="54"/>
+      <c r="N225" s="54"/>
+      <c r="O225" s="54"/>
+      <c r="P225" s="54"/>
+      <c r="Q225" s="54"/>
     </row>
     <row r="226" spans="12:22">
-      <c r="L226" s="38"/>
-      <c r="M226" s="38"/>
-      <c r="N226" s="38"/>
-      <c r="O226" s="38"/>
-      <c r="P226" s="38"/>
-      <c r="Q226" s="38"/>
+      <c r="L226" s="54"/>
+      <c r="M226" s="54"/>
+      <c r="N226" s="54"/>
+      <c r="O226" s="54"/>
+      <c r="P226" s="54"/>
+      <c r="Q226" s="54"/>
     </row>
     <row r="229" spans="12:22" ht="27">
       <c r="U229" s="17" t="s">
@@ -5379,22 +5405,22 @@
       </c>
     </row>
     <row r="284" spans="12:22">
-      <c r="L284" s="38" t="s">
+      <c r="L284" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="M284" s="38"/>
-      <c r="N284" s="38"/>
-      <c r="O284" s="38"/>
-      <c r="P284" s="38"/>
-      <c r="Q284" s="38"/>
+      <c r="M284" s="54"/>
+      <c r="N284" s="54"/>
+      <c r="O284" s="54"/>
+      <c r="P284" s="54"/>
+      <c r="Q284" s="54"/>
     </row>
     <row r="285" spans="12:22">
-      <c r="L285" s="38"/>
-      <c r="M285" s="38"/>
-      <c r="N285" s="38"/>
-      <c r="O285" s="38"/>
-      <c r="P285" s="38"/>
-      <c r="Q285" s="38"/>
+      <c r="L285" s="54"/>
+      <c r="M285" s="54"/>
+      <c r="N285" s="54"/>
+      <c r="O285" s="54"/>
+      <c r="P285" s="54"/>
+      <c r="Q285" s="54"/>
     </row>
     <row r="287" spans="12:22" ht="27">
       <c r="U287" s="17" t="s">
@@ -5487,63 +5513,63 @@
       </c>
     </row>
     <row r="336" spans="1:17" s="9" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A336" s="37" t="s">
+      <c r="A336" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="B336" s="37"/>
-      <c r="C336" s="37"/>
-      <c r="D336" s="37"/>
-      <c r="E336" s="37"/>
-      <c r="F336" s="37"/>
-      <c r="G336" s="37"/>
-      <c r="H336" s="37"/>
-      <c r="I336" s="37"/>
-      <c r="J336" s="37"/>
-      <c r="K336" s="37"/>
-      <c r="L336" s="37"/>
-      <c r="M336" s="37"/>
-      <c r="N336" s="37"/>
-      <c r="O336" s="37"/>
-      <c r="P336" s="37"/>
-      <c r="Q336" s="37"/>
+      <c r="B336" s="53"/>
+      <c r="C336" s="53"/>
+      <c r="D336" s="53"/>
+      <c r="E336" s="53"/>
+      <c r="F336" s="53"/>
+      <c r="G336" s="53"/>
+      <c r="H336" s="53"/>
+      <c r="I336" s="53"/>
+      <c r="J336" s="53"/>
+      <c r="K336" s="53"/>
+      <c r="L336" s="53"/>
+      <c r="M336" s="53"/>
+      <c r="N336" s="53"/>
+      <c r="O336" s="53"/>
+      <c r="P336" s="53"/>
+      <c r="Q336" s="53"/>
     </row>
     <row r="337" spans="1:17" s="9" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A337" s="37"/>
-      <c r="B337" s="37"/>
-      <c r="C337" s="37"/>
-      <c r="D337" s="37"/>
-      <c r="E337" s="37"/>
-      <c r="F337" s="37"/>
-      <c r="G337" s="37"/>
-      <c r="H337" s="37"/>
-      <c r="I337" s="37"/>
-      <c r="J337" s="37"/>
-      <c r="K337" s="37"/>
-      <c r="L337" s="37"/>
-      <c r="M337" s="37"/>
-      <c r="N337" s="37"/>
-      <c r="O337" s="37"/>
-      <c r="P337" s="37"/>
-      <c r="Q337" s="37"/>
+      <c r="A337" s="53"/>
+      <c r="B337" s="53"/>
+      <c r="C337" s="53"/>
+      <c r="D337" s="53"/>
+      <c r="E337" s="53"/>
+      <c r="F337" s="53"/>
+      <c r="G337" s="53"/>
+      <c r="H337" s="53"/>
+      <c r="I337" s="53"/>
+      <c r="J337" s="53"/>
+      <c r="K337" s="53"/>
+      <c r="L337" s="53"/>
+      <c r="M337" s="53"/>
+      <c r="N337" s="53"/>
+      <c r="O337" s="53"/>
+      <c r="P337" s="53"/>
+      <c r="Q337" s="53"/>
     </row>
     <row r="338" spans="1:17" s="9" customFormat="1" ht="15.5" customHeight="1">
-      <c r="A338" s="37"/>
-      <c r="B338" s="37"/>
-      <c r="C338" s="37"/>
-      <c r="D338" s="37"/>
-      <c r="E338" s="37"/>
-      <c r="F338" s="37"/>
-      <c r="G338" s="37"/>
-      <c r="H338" s="37"/>
-      <c r="I338" s="37"/>
-      <c r="J338" s="37"/>
-      <c r="K338" s="37"/>
-      <c r="L338" s="37"/>
-      <c r="M338" s="37"/>
-      <c r="N338" s="37"/>
-      <c r="O338" s="37"/>
-      <c r="P338" s="37"/>
-      <c r="Q338" s="37"/>
+      <c r="A338" s="53"/>
+      <c r="B338" s="53"/>
+      <c r="C338" s="53"/>
+      <c r="D338" s="53"/>
+      <c r="E338" s="53"/>
+      <c r="F338" s="53"/>
+      <c r="G338" s="53"/>
+      <c r="H338" s="53"/>
+      <c r="I338" s="53"/>
+      <c r="J338" s="53"/>
+      <c r="K338" s="53"/>
+      <c r="L338" s="53"/>
+      <c r="M338" s="53"/>
+      <c r="N338" s="53"/>
+      <c r="O338" s="53"/>
+      <c r="P338" s="53"/>
+      <c r="Q338" s="53"/>
     </row>
     <row r="340" spans="1:17" ht="27">
       <c r="I340" s="17" t="s">
@@ -5878,14 +5904,14 @@
       </c>
     </row>
     <row r="561" spans="19:20">
-      <c r="S561" s="35" t="s">
+      <c r="S561" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="T561" s="36"/>
+      <c r="T561" s="52"/>
     </row>
     <row r="562" spans="19:20">
-      <c r="S562" s="36"/>
-      <c r="T562" s="36"/>
+      <c r="S562" s="52"/>
+      <c r="T562" s="52"/>
     </row>
     <row r="565" spans="19:20">
       <c r="S565" s="10" t="s">
@@ -6092,14 +6118,14 @@
       </c>
     </row>
     <row r="758" spans="16:17">
-      <c r="P758" s="35" t="s">
+      <c r="P758" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="Q758" s="36"/>
+      <c r="Q758" s="52"/>
     </row>
     <row r="759" spans="16:17">
-      <c r="P759" s="36"/>
-      <c r="Q759" s="36"/>
+      <c r="P759" s="52"/>
+      <c r="Q759" s="52"/>
     </row>
     <row r="765" spans="16:17">
       <c r="P765" s="10" t="s">
@@ -6146,20 +6172,20 @@
       </c>
     </row>
     <row r="814" spans="11:15" ht="17.5" customHeight="1">
-      <c r="K814" s="35" t="s">
+      <c r="K814" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="L814" s="35"/>
-      <c r="M814" s="35"/>
-      <c r="N814" s="35"/>
-      <c r="O814" s="35"/>
+      <c r="L814" s="51"/>
+      <c r="M814" s="51"/>
+      <c r="N814" s="51"/>
+      <c r="O814" s="51"/>
     </row>
     <row r="815" spans="11:15" ht="17.5" customHeight="1">
-      <c r="K815" s="35"/>
-      <c r="L815" s="35"/>
-      <c r="M815" s="35"/>
-      <c r="N815" s="35"/>
-      <c r="O815" s="35"/>
+      <c r="K815" s="51"/>
+      <c r="L815" s="51"/>
+      <c r="M815" s="51"/>
+      <c r="N815" s="51"/>
+      <c r="O815" s="51"/>
     </row>
     <row r="827" spans="11:11">
       <c r="K827" s="10" t="s">
@@ -6463,20 +6489,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ca2aa3fe-7cd9-4bb8-98f3-aa48b07f5614" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ca2aa3fe-7cd9-4bb8-98f3-aa48b07f5614" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6498,14 +6524,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE20B64-B1DB-4D7F-B13D-E3CE05B3F74C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A31DFC7-F306-40B4-A27A-965C2F0C86DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6513,4 +6531,12 @@
     <ds:schemaRef ds:uri="ca2aa3fe-7cd9-4bb8-98f3-aa48b07f5614"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FE20B64-B1DB-4D7F-B13D-E3CE05B3F74C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>